--- a/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31967630-557E-45D0-B69E-96B73BACA23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F2636-F3C4-4CCB-9999-5B94E0E3895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1725" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Affect Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +53,6 @@
   </si>
   <si>
     <t>name_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어펙트 테이블의 index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,24 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">어펙트 타입
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0: 피해 / 1: 버프 / 2: 디버프 / 3: CC)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,12 +128,344 @@
     <t>어펙트 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>초당 [f1]의 피해를 [f2]초 동안 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]의 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max HP를 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max HP 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max MP 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max MP를 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민첩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손재주 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 공격력을 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 방어력을 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 힘을 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 민첩을 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 지혜를 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 손재주를 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 정신력을 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 운을 [f2]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max HP 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max HP를 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max MP 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max MP를 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>공격력 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 공격력을 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>방어력 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 방어력을 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>힘 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 힘을 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>민첩 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 민첩을 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>지혜 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 지혜를 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>손재주 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 손재주를 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>정신력 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 정신력을 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>운 감소</t>
+  </si>
+  <si>
+    <t>[f1]초 동안 운을 [f2]만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 기절시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 일반 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]의 고정 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 [f1]의 고정 피해를 [f2]초 동안 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 비례 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 비례 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 현재 체력의 [f1]%의 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 최대 체력의 [f1]%의 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 비례 지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 적 최대 체력의 [f1]%의 피해를 [f2]초 동안 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 체력 비례 지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 적 현재 체력의 [f1]%의 피해를 [f2]초 동안 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 빙결시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 속박한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 [f2]의 피해를 막는 보호막을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막 무시 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 보호막을 무시하는 [f1]의 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 무적 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 침묵시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 도발한다.
+지속 시간 동안 방어력을 [f2]% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 감전시킨다. 
+지속 시간 동안 초당 [f2]의 고정 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 출혈시킨다.
+지속 시간 동안 초당 최대 체력의 [f2]%의 고정 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 불태운다.
+지속 시간 동안 초당 최대 체력의 [f2]%의 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 적을 중독시킨다.
+지속 시간 동안 초당 [f2]만큼 HP와MP를 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어펙트 테이블의 index 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(100번대 : 피해 관련 / 200번대: 버프 /
+300번대: 디버프 / 400번대: CC, 상태이상 / 500번대: 특수효과)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자에 동화되어 [f1]초 동안 다음의 스킬을 강화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +505,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -213,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -395,11 +711,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,9 +786,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +802,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -726,22 +1105,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -765,85 +1144,695 @@
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
+      <c r="E4" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A3F7C-ADEF-4033-8204-81FC78B2C319}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="19"/>
+    <col min="2" max="2" width="22.796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.69921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="19">
+        <v>100</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="19">
+        <v>101</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="19">
+        <v>102</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="19">
+        <v>103</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="19">
+        <v>104</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="19">
+        <v>105</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="19">
+        <v>106</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="19">
+        <v>107</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="19">
+        <v>108</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="19">
+        <v>200</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="19">
+        <v>201</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="19">
+        <v>202</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="19">
+        <v>203</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="19">
+        <v>204</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="19">
+        <v>205</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="19">
+        <v>206</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="19">
+        <v>207</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="19">
+        <v>208</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="19">
+        <v>209</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="19">
+        <v>210</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="19">
+        <v>299</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="19">
+        <v>300</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="19">
+        <v>301</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="19">
+        <v>302</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="19">
+        <v>303</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="19">
+        <v>304</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="19">
+        <v>305</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="19">
+        <v>306</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="19">
+        <v>307</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="19">
+        <v>308</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="19">
+        <v>309</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="19">
+        <v>400</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="19">
+        <v>401</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A35" s="19">
+        <v>402</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A36" s="19">
+        <v>403</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A37" s="19">
+        <v>404</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A38" s="19">
+        <v>405</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A39" s="19">
+        <v>406</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="19">
+        <v>407</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="19">
+        <v>408</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="19">
+        <v>500</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F2636-F3C4-4CCB-9999-5B94E0E3895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441E251-F70E-479D-A9BC-AFD5FCCB8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="-60" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[f1]초 동안 Max HP를 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Max HP 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[f1]초 동안 Max MP를 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,96 +185,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[f1]초 동안 공격력을 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 방어력을 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 힘을 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 민첩을 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 지혜를 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 손재주를 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 정신력을 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[f1]초 동안 운을 [f2]만큼 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Max HP 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 Max HP를 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Max MP 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 Max MP를 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>공격력 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 공격력을 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>방어력 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 방어력을 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>힘 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 힘을 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>민첩 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 민첩을 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>지혜 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 지혜를 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>손재주 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 손재주를 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>정신력 감소</t>
   </si>
   <si>
-    <t>[f1]초 동안 정신력을 [f2]만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t>운 감소</t>
-  </si>
-  <si>
-    <t>[f1]초 동안 운을 [f2]만큼 감소시킨다.</t>
   </si>
   <si>
     <t>기절</t>
@@ -458,6 +388,86 @@
   </si>
   <si>
     <t>그림자에 동화되어 [f1]초 동안 다음의 스킬을 강화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 공격력을 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 방어력을 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 힘을 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 민첩을 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 지혜를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 손재주를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 정신력을 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 운을 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max HP를 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max MP를 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 공격력을 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 방어력을 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 힘을 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 민첩을 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 지혜를 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 손재주를 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 정신력을 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 운을 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max HP를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 Max MP를 [f2]%만큼 증가시킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,16 +1121,16 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1145,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -1176,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -1204,13 +1214,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1228,19 +1238,19 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="19"/>
-    <col min="2" max="2" width="22.796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.69921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.296875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="19"/>
+    <col min="2" max="2" width="22.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>100</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>101</v>
       </c>
@@ -1285,550 +1295,550 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>102</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C4" s="19">
         <v>1</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>103</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C5" s="19">
         <v>1</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>104</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>105</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>106</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>107</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>108</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>200</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="19">
         <v>0</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>201</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="19">
         <v>0</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>202</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="19">
         <v>0</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>203</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="19">
         <v>0</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>204</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="19">
         <v>0</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>205</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="19">
         <v>0</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>206</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="19">
         <v>0</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>207</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="19">
         <v>0</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>208</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>209</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="19">
         <v>0</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>210</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19">
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>299</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>300</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="19">
         <v>0</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>301</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>302</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C25" s="19">
         <v>0</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>303</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>304</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19">
         <v>0</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>305</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>306</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C29" s="19">
         <v>0</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>307</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C30" s="19">
         <v>0</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>308</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C31" s="19">
         <v>0</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>309</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C32" s="19">
         <v>0</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>400</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C33" s="19">
         <v>1</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>401</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C34" s="19">
         <v>1</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>402</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C35" s="19">
         <v>1</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>403</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C36" s="19">
         <v>1</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>404</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C37" s="19">
         <v>1</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>405</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C38" s="19">
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>406</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C39" s="19">
         <v>1</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>407</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C40" s="19">
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>408</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C41" s="19">
         <v>1</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>500</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C42" s="19">
         <v>0</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441E251-F70E-479D-A9BC-AFD5FCCB8C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD530C50-F3C2-42CF-9313-456E51253B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="-60" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15936" yWindow="0" windowWidth="7200" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -1121,16 +1121,16 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -1214,13 +1214,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1237,20 +1237,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A3F7C-ADEF-4033-8204-81FC78B2C319}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="19"/>
-    <col min="2" max="2" width="22.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="19"/>
+    <col min="2" max="2" width="22.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.69921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>100</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="19">
         <v>101</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="19">
         <v>103</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="19">
         <v>104</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="19">
         <v>105</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>106</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>107</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>108</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="19">
         <v>200</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>201</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="19">
         <v>202</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>203</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
         <v>204</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>205</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="19">
         <v>206</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>207</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="19">
         <v>208</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>209</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="19">
         <v>210</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>299</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="19">
         <v>300</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>301</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="19">
         <v>302</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>303</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="19">
         <v>304</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
         <v>305</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="19">
         <v>306</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>307</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="19">
         <v>308</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
         <v>309</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="19">
         <v>400</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="19">
         <v>401</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="19">
         <v>402</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="19">
         <v>403</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="19">
         <v>404</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" s="19">
         <v>405</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="19">
         <v>406</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="19">
         <v>407</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="19">
         <v>408</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="19">
         <v>500</v>
       </c>

--- a/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD530C50-F3C2-42CF-9313-456E51253B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC9F518-CFEF-43C0-B46B-924FCC9E3B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15936" yWindow="0" windowWidth="7200" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +468,62 @@
   </si>
   <si>
     <t>[f1]초 동안 Max MP를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스팅 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 공격 속도를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 이동 속도를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 캐스팅 속도를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 차지 속도를 [f2]%만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 공격 속도를 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 이동 속도를 [f2]%만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 [f1]m 밀어낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,20 +1173,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1158,7 +1214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1172,7 +1228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -1186,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -1200,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -1214,13 +1270,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1235,22 +1291,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A3F7C-ADEF-4033-8204-81FC78B2C319}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="19"/>
-    <col min="2" max="2" width="22.69921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.69921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="19"/>
+    <col min="2" max="2" width="22.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>100</v>
       </c>
@@ -1281,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>101</v>
       </c>
@@ -1295,7 +1351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -1309,7 +1365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>103</v>
       </c>
@@ -1323,7 +1379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>104</v>
       </c>
@@ -1337,7 +1393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>105</v>
       </c>
@@ -1351,7 +1407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>106</v>
       </c>
@@ -1365,7 +1421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>107</v>
       </c>
@@ -1379,7 +1435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>108</v>
       </c>
@@ -1393,7 +1449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>200</v>
       </c>
@@ -1407,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>201</v>
       </c>
@@ -1421,7 +1477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>202</v>
       </c>
@@ -1435,7 +1491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>203</v>
       </c>
@@ -1449,7 +1505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>204</v>
       </c>
@@ -1463,7 +1519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>205</v>
       </c>
@@ -1477,7 +1533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>206</v>
       </c>
@@ -1491,7 +1547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>207</v>
       </c>
@@ -1505,7 +1561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>208</v>
       </c>
@@ -1519,7 +1575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>209</v>
       </c>
@@ -1533,7 +1589,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>210</v>
       </c>
@@ -1547,297 +1603,395 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C23" s="19">
         <v>0</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C25" s="19">
         <v>0</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>300</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>301</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>302</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>303</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="19">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>304</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C31" s="19">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>305</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>306</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>307</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>308</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>309</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>310</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>311</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>400</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>401</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>402</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>403</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>404</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>405</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>406</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>407</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>408</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
+        <v>420</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="19">
+        <v>1</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>500</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="19">
         <v>0</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="19">
-        <v>305</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="19">
-        <v>306</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="19">
-        <v>307</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="19">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="19">
-        <v>308</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="19">
-        <v>309</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="19">
-        <v>400</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="19">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="19">
-        <v>401</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A35" s="19">
-        <v>402</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A36" s="19">
-        <v>403</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="19">
-        <v>1</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A37" s="19">
-        <v>404</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="19">
-        <v>1</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A38" s="19">
-        <v>405</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A39" s="19">
-        <v>406</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="19">
-        <v>407</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="19">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="19">
-        <v>408</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="19">
-        <v>1</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="19">
-        <v>500</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>77</v>
       </c>
     </row>

--- a/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC9F518-CFEF-43C0-B46B-924FCC9E3B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87278DF4-E360-4CB9-9903-D571B4054079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="345" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,24 +75,6 @@
   </si>
   <si>
     <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">대상
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0: 자신 / 1: 적 / 2: 파티원)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +506,51 @@
   </si>
   <si>
     <t>적을 [f1]m 밀어낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">대상
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0: 자신 / 1: 적 / 2: 파티원 / 3: 범위 내 존재하는 모든 캐릭터)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위내 존재하는 모든 캐릭터에게 [f1]의 피해를 [f2]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살 회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살을 최대 10발 보유한다. 
+일반 공격, 스킬 사용은 수중에 해당 스킬을 사용하기 위한 화살이 최소치 필요하다.
+화살이 [f1]초 뒤에 자동으로 회수되어 수중으로 들어온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장궁 패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 꽂혀있는 화살 1발 당 [f1]의 피해를 1회 주며 뽑아내고 모든 화살을 회수한다.
+이 스킬로 화살을 회수할 때는 화살 궤도 상의 적에게 피해를 주지 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.3">
@@ -1239,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1247,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1261,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1291,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A3F7C-ADEF-4033-8204-81FC78B2C319}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1329,7 @@
     <col min="1" max="1" width="8.75" style="19"/>
     <col min="2" max="2" width="22.75" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="70.625" style="20" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1317,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1328,13 +1355,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1342,13 +1369,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1356,13 +1383,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1370,13 +1397,13 @@
         <v>103</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,13 +1411,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,13 +1425,13 @@
         <v>105</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1412,13 +1439,13 @@
         <v>106</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,13 +1453,13 @@
         <v>107</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="19">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1440,559 +1467,601 @@
         <v>108</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C11" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="19">
         <v>0</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="19">
         <v>0</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="19">
         <v>0</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="19">
         <v>0</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="19">
         <v>0</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="19">
         <v>0</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="19">
         <v>0</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="19">
         <v>0</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19">
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="19">
         <v>0</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="19">
         <v>0</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="19">
         <v>0</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C26" s="19">
         <v>0</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="19">
         <v>1</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="19">
         <v>1</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="19">
         <v>1</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="19">
         <v>1</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="19">
         <v>1</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="19">
         <v>1</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="19">
         <v>1</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="19">
         <v>1</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="19">
         <v>1</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C37" s="19">
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C39" s="19">
         <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
+        <v>400</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
         <v>401</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="19">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
-        <v>402</v>
-      </c>
       <c r="B41" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="19">
         <v>1</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>69</v>
+      <c r="D41" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C42" s="19">
         <v>1</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C43" s="19">
         <v>1</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="19">
         <v>1</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
+        <v>405</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
         <v>406</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="19">
-        <v>1</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
-        <v>407</v>
-      </c>
       <c r="B46" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="19">
         <v>1</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>58</v>
+      <c r="D46" s="21" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C47" s="19">
         <v>1</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C48" s="19">
         <v>1</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="19">
+        <v>420</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
         <v>500</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="19">
+      <c r="B50" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="19">
         <v>0</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>77</v>
+      <c r="D50" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>501</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>502</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="19">
+        <v>1</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_Affect테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87278DF4-E360-4CB9-9903-D571B4054079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C4DFC-95F1-4C65-9254-4CF0445CFA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="345" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15300" yWindow="0" windowWidth="7836" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,22 @@
   <si>
     <t>적에게 꽂혀있는 화살 1발 당 [f1]의 피해를 1회 주며 뽑아내고 모든 화살을 회수한다.
 이 스킬로 화살을 회수할 때는 화살 궤도 상의 적에게 피해를 주지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 용인으로 변신한다. 이후 모든 스탯이 [f2]% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[f1]초 동안 유지되는 설치형 스킬로 주변 랜덤한 적 대상에게 [f2]초에 한 번 씩 효과를 적용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +929,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,16 +1220,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -1255,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -1269,7 +1285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -1283,7 +1299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -1297,13 +1313,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1318,22 +1334,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A3F7C-ADEF-4033-8204-81FC78B2C319}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="19"/>
-    <col min="2" max="2" width="22.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="19"/>
+    <col min="2" max="2" width="22.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.59765625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1343,14 +1359,14 @@
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>100</v>
       </c>
@@ -1364,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="19">
         <v>101</v>
       </c>
@@ -1378,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -1392,7 +1408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="19">
         <v>103</v>
       </c>
@@ -1406,7 +1422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="19">
         <v>104</v>
       </c>
@@ -1420,7 +1436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="19">
         <v>105</v>
       </c>
@@ -1434,7 +1450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>106</v>
       </c>
@@ -1448,7 +1464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="19">
         <v>107</v>
       </c>
@@ -1462,7 +1478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>108</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="19">
         <v>109</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>200</v>
       </c>
@@ -1504,7 +1520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="19">
         <v>201</v>
       </c>
@@ -1518,7 +1534,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>202</v>
       </c>
@@ -1532,7 +1548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
         <v>203</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>204</v>
       </c>
@@ -1560,7 +1576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="19">
         <v>205</v>
       </c>
@@ -1574,7 +1590,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>206</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="19">
         <v>207</v>
       </c>
@@ -1602,7 +1618,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>208</v>
       </c>
@@ -1616,7 +1632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="19">
         <v>209</v>
       </c>
@@ -1630,7 +1646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>210</v>
       </c>
@@ -1644,7 +1660,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="19">
         <v>211</v>
       </c>
@@ -1658,7 +1674,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>212</v>
       </c>
@@ -1672,7 +1688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="19">
         <v>213</v>
       </c>
@@ -1686,7 +1702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>214</v>
       </c>
@@ -1700,7 +1716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="19">
         <v>299</v>
       </c>
@@ -1714,7 +1730,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
         <v>300</v>
       </c>
@@ -1728,7 +1744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="19">
         <v>301</v>
       </c>
@@ -1742,7 +1758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>302</v>
       </c>
@@ -1756,7 +1772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="19">
         <v>303</v>
       </c>
@@ -1770,7 +1786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
         <v>304</v>
       </c>
@@ -1784,7 +1800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="19">
         <v>305</v>
       </c>
@@ -1798,7 +1814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="19">
         <v>306</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="19">
         <v>307</v>
       </c>
@@ -1826,7 +1842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="19">
         <v>308</v>
       </c>
@@ -1840,7 +1856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="19">
         <v>309</v>
       </c>
@@ -1854,7 +1870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="19">
         <v>310</v>
       </c>
@@ -1868,7 +1884,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="19">
         <v>311</v>
       </c>
@@ -1882,7 +1898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="19">
         <v>400</v>
       </c>
@@ -1896,7 +1912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="19">
         <v>401</v>
       </c>
@@ -1910,7 +1926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A42" s="19">
         <v>402</v>
       </c>
@@ -1920,11 +1936,11 @@
       <c r="C42" s="19">
         <v>1</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A43" s="19">
         <v>403</v>
       </c>
@@ -1934,11 +1950,11 @@
       <c r="C43" s="19">
         <v>1</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" s="19">
         <v>404</v>
       </c>
@@ -1948,11 +1964,11 @@
       <c r="C44" s="19">
         <v>1</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A45" s="19">
         <v>405</v>
       </c>
@@ -1962,11 +1978,11 @@
       <c r="C45" s="19">
         <v>1</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A46" s="19">
         <v>406</v>
       </c>
@@ -1976,11 +1992,11 @@
       <c r="C46" s="19">
         <v>1</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="19">
         <v>407</v>
       </c>
@@ -1994,7 +2010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="19">
         <v>408</v>
       </c>
@@ -2008,7 +2024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="19">
         <v>420</v>
       </c>
@@ -2022,7 +2038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="19">
         <v>500</v>
       </c>
@@ -2036,7 +2052,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A51" s="19">
         <v>501</v>
       </c>
@@ -2046,11 +2062,11 @@
       <c r="C51" s="19">
         <v>0</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A52" s="19">
         <v>502</v>
       </c>
@@ -2060,8 +2076,36 @@
       <c r="C52" s="19">
         <v>1</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="19">
+        <v>503</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="19">
+        <v>0</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A54" s="19">
+        <v>504</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="19">
+        <v>1</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
